--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
   <si>
     <t>Фильмы</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Дедпул 2</t>
+  </si>
+  <si>
+    <t>Черная пантера</t>
   </si>
 </sst>
 </file>
@@ -438,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,6 +566,20 @@
       </c>
       <c r="J7" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>2018</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -9,17 +9,19 @@
   <sheets>
     <sheet name="Фильмы" sheetId="1" r:id="rId1"/>
     <sheet name="Сериал" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Аниме" sheetId="3" r:id="rId3"/>
+    <sheet name="Игры" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="значки">Фильмы!$I$5:$I$7</definedName>
     <definedName name="Статус">Фильмы!$J$5:$J$7</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="29">
   <si>
     <t>Фильмы</t>
   </si>
@@ -79,13 +81,69 @@
   </si>
   <si>
     <t>Черная пантера</t>
+  </si>
+  <si>
+    <t>Название</t>
+  </si>
+  <si>
+    <t>жанр</t>
+  </si>
+  <si>
+    <t>Kingdom under FIRE 2</t>
+  </si>
+  <si>
+    <t>MMORPG\стратегия</t>
+  </si>
+  <si>
+    <t>Очень странные дела</t>
+  </si>
+  <si>
+    <t>Черная молния</t>
+  </si>
+  <si>
+    <t>Криптон</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сезон </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t>ü</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t>û</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t>[</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +172,20 @@
       <name val="Wingdings"/>
       <charset val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -135,16 +207,224 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="41">
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -444,14 +724,15 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.42578125" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
     <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" style="5" customWidth="1"/>
     <col min="10" max="10" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -465,8 +746,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="D1" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -480,7 +764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -494,7 +778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -508,7 +792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -528,7 +812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -548,7 +832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -568,7 +852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -583,31 +867,71 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
       <formula1>Статус</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
+      <formula1>значки</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{F8627749-DC74-4966-93C7-467D165F0051}">
+            <xm:f>NOT(ISERROR(SEARCH($I$6,D2)))</xm:f>
+            <xm:f>$I$6</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFF0000"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{AA7A354E-F020-405B-B74B-877C917B218D}">
+            <xm:f>NOT(ISERROR(SEARCH($I$5,D2)))</xm:f>
+            <xm:f>$I$5</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF00B050"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{6E475F33-A8FC-4AAF-BEB6-E9146F9C351A}">
+            <xm:f>NOT(ISERROR(SEARCH($I$7,D2)))</xm:f>
+            <xm:f>$I$7</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFC000"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D2:D1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -620,8 +944,11 @@
       <c r="D1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="E1" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -638,24 +965,377 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3">
+        <v>2016</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>2018</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>2018</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I7" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>Статус</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
+      <formula1>значки</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{391AF357-CD5A-438F-A8C0-F1381AFA0FB6}">
+            <xm:f>NOT(ISERROR(SEARCH(Фильмы!$J$7,I7)))</xm:f>
+            <xm:f>Фильмы!$J$7</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFC000"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{6B3122F6-796E-4F99-BA22-A55ACDDAD798}">
+            <xm:f>NOT(ISERROR(SEARCH(Фильмы!$J$5,I5)))</xm:f>
+            <xm:f>Фильмы!$J$5</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF00B050"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{57438382-5DA9-48BB-9BEC-00FE4C26B381}">
+            <xm:f>NOT(ISERROR(SEARCH($I$5,E2)))</xm:f>
+            <xm:f>$I$5</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF00B050"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{3133DA30-D9A0-4E8D-AF0A-C6FB45660B13}">
+            <xm:f>NOT(ISERROR(SEARCH($I$6,E2)))</xm:f>
+            <xm:f>$I$6</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFF0000"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{8D7ECAD7-D3EA-4310-9D43-56324253624A}">
+            <xm:f>NOT(ISERROR(SEARCH($I$7,E2)))</xm:f>
+            <xm:f>$I$7</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFC000"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>E2:E1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I5" s="2"/>
+      <c r="N5" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I7" s="3"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
+      <formula1>Статус</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
+      <formula1>значки</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{C6A30020-CEE2-4844-8981-C1DDEB46DFB1}">
+            <xm:f>NOT(ISERROR(SEARCH(Фильмы!$J$7,N4)))</xm:f>
+            <xm:f>Фильмы!$J$7</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFC000"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>N4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="8" operator="containsText" id="{6D09DD80-7D0C-43F9-80A4-E2F419981406}">
+            <xm:f>NOT(ISERROR(SEARCH(Фильмы!$J$5,N2)))</xm:f>
+            <xm:f>Фильмы!$J$5</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF00B050"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>N2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{F63783E2-679C-4331-BB12-1BFE32DB457C}">
+            <xm:f>NOT(ISERROR(SEARCH($N$2,D1)))</xm:f>
+            <xm:f>$N$2</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF00B050"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{E1565581-17FE-47C1-BD6E-02FEE2096EE2}">
+            <xm:f>NOT(ISERROR(SEARCH($N$3,D1)))</xm:f>
+            <xm:f>$N$3</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFF0000"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{3EDEF6AC-244B-4867-A3BC-BCC13E7EC5F5}">
+            <xm:f>NOT(ISERROR(SEARCH($N$4,D1)))</xm:f>
+            <xm:f>$N$4</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFC000"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D1:D1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
+      <formula1>Статус</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+      <formula1>значки</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{BCC054C7-4EFE-4E7C-9C59-E3AEE21C140A}">
+            <xm:f>NOT(ISERROR(SEARCH($J$7,D1)))</xm:f>
+            <xm:f>$J$7</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF00B050"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{E9666999-9B48-4439-81BB-6DD008C39311}">
+            <xm:f>NOT(ISERROR(SEARCH($J$8,D1)))</xm:f>
+            <xm:f>$J$8</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFF0000"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{27998A94-B10A-48A5-A008-4C2DC2F6708A}">
+            <xm:f>NOT(ISERROR(SEARCH($J$9,D1)))</xm:f>
+            <xm:f>$J$9</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FFFFC000"/>
+              </font>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>D1:D1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -13,6 +13,10 @@
     <sheet name="Игры" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Аниме!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Игры!$A$1:$D$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Сериал!$A$1:$E$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Фильмы!$A$1:$D$8</definedName>
     <definedName name="значки">Фильмы!$I$5:$I$7</definedName>
     <definedName name="Статус">Фильмы!$J$5:$J$7</definedName>
   </definedNames>
@@ -21,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="36">
   <si>
     <t>Фильмы</t>
   </si>
@@ -39,9 +43,6 @@
   </si>
   <si>
     <t>Начал смотреть</t>
-  </si>
-  <si>
-    <t>Гошторм</t>
   </si>
   <si>
     <t>ü</t>
@@ -137,6 +138,30 @@
       </rPr>
       <t>[</t>
     </r>
+  </si>
+  <si>
+    <t>Ashes of creation</t>
+  </si>
+  <si>
+    <t>MMORPG</t>
+  </si>
+  <si>
+    <t>Lost ark online</t>
+  </si>
+  <si>
+    <t>Геошторм</t>
+  </si>
+  <si>
+    <t>Безбашенныее</t>
+  </si>
+  <si>
+    <t>Каратель</t>
+  </si>
+  <si>
+    <t>Яркость</t>
+  </si>
+  <si>
+    <t>Жажда смерти</t>
   </si>
 </sst>
 </file>
@@ -218,7 +243,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="16">
     <dxf>
       <font>
         <color rgb="FFFFC000"/>
@@ -226,11 +251,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -241,6 +276,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFFC000"/>
       </font>
     </dxf>
@@ -251,177 +291,37 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
       </font>
     </dxf>
   </dxfs>
@@ -721,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -747,12 +647,12 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <v>2017</v>
@@ -761,12 +661,12 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>2018</v>
@@ -775,12 +675,12 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>2018</v>
@@ -789,12 +689,12 @@
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>2017</v>
@@ -803,10 +703,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J5" t="s">
         <v>3</v>
@@ -814,7 +714,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>2018</v>
@@ -823,10 +723,10 @@
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J6" t="s">
         <v>4</v>
@@ -834,7 +734,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>2018</v>
@@ -843,10 +743,10 @@
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="J7" t="s">
         <v>5</v>
@@ -854,7 +754,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>2018</v>
@@ -863,10 +763,53 @@
         <v>4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <v>2017</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10">
+        <v>2017</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>2017</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D8"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
       <formula1>Статус</formula1>
@@ -921,7 +864,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -933,24 +876,24 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
       <c r="E1" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>2017</v>
@@ -962,12 +905,12 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>2016</v>
@@ -979,12 +922,12 @@
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>2018</v>
@@ -996,12 +939,12 @@
         <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>2018</v>
@@ -1013,23 +956,39 @@
         <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6">
+        <v>2017</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="I6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E5"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>Статус</formula1>
@@ -1107,9 +1066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1120,37 +1077,37 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I5" s="2"/>
       <c r="N5" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1160,6 +1117,7 @@
       <c r="I7" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D1"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
       <formula1>Статус</formula1>
@@ -1236,9 +1194,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1250,48 +1206,77 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D4"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
       <formula1>Статус</formula1>

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="39">
   <si>
     <t>Фильмы</t>
   </si>
@@ -162,6 +162,15 @@
   </si>
   <si>
     <t>Жажда смерти</t>
+  </si>
+  <si>
+    <t>Диктатор</t>
+  </si>
+  <si>
+    <t>Отступники</t>
+  </si>
+  <si>
+    <t>Красные огни</t>
   </si>
 </sst>
 </file>
@@ -621,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.25"/>
@@ -805,6 +814,39 @@
         <v>4</v>
       </c>
       <c r="D11" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>7</v>
       </c>
     </row>
